--- a/bin/sheets/main_db/teams/WIN/PlayerPerformance_4956.xlsx
+++ b/bin/sheets/main_db/teams/WIN/PlayerPerformance_4956.xlsx
@@ -7,8 +7,10 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Batting" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Bowling" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Player Info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Batting" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Bowling" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Batting Extra" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -426,6 +428,69 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
+  <dimension ref="A1:D2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>ID</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>NAME</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>BATTING_HAND</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>BOWL_STYLE</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>4956</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Hayden Rashidi Walsh</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Left Handed</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>Right Arm Leg Break</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:J23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -452,7 +517,7 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>MATCH_CARD_LINK</t>
+          <t>MATCH_CODE</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
@@ -504,7 +569,7 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4282</t>
+          <t>4282</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -544,7 +609,6 @@
           <t>2</t>
         </is>
       </c>
-      <c r="B3" t="inlineStr"/>
       <c r="C3" t="inlineStr">
         <is>
           <t>06/11/2019</t>
@@ -552,7 +616,7 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4377</t>
+          <t>4377</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -604,7 +668,7 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4378</t>
+          <t>4378</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -644,7 +708,6 @@
           <t>4</t>
         </is>
       </c>
-      <c r="B5" t="inlineStr"/>
       <c r="C5" t="inlineStr">
         <is>
           <t>11/11/2019</t>
@@ -652,7 +715,7 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4379</t>
+          <t>4379</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -692,7 +755,6 @@
           <t>5</t>
         </is>
       </c>
-      <c r="B6" t="inlineStr"/>
       <c r="C6" t="inlineStr">
         <is>
           <t>15/12/2019</t>
@@ -700,7 +762,7 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4385</t>
+          <t>4385</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -740,7 +802,6 @@
           <t>6</t>
         </is>
       </c>
-      <c r="B7" t="inlineStr"/>
       <c r="C7" t="inlineStr">
         <is>
           <t>07/01/2020</t>
@@ -748,7 +809,7 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4391</t>
+          <t>4391</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
@@ -800,7 +861,7 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4394</t>
+          <t>4394</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
@@ -840,7 +901,6 @@
           <t>8</t>
         </is>
       </c>
-      <c r="B9" t="inlineStr"/>
       <c r="C9" t="inlineStr">
         <is>
           <t>12/01/2020</t>
@@ -848,7 +908,7 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4397</t>
+          <t>4397</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
@@ -900,7 +960,7 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4413</t>
+          <t>4413</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
@@ -952,7 +1012,7 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4417</t>
+          <t>4417</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
@@ -1004,7 +1064,7 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4483</t>
+          <t>4483</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
@@ -1044,7 +1104,6 @@
           <t>12</t>
         </is>
       </c>
-      <c r="B13" t="inlineStr"/>
       <c r="C13" t="inlineStr">
         <is>
           <t>24/07/2021</t>
@@ -1052,7 +1111,7 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4484</t>
+          <t>4484</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
@@ -1104,7 +1163,7 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4486</t>
+          <t>4486</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
@@ -1156,7 +1215,7 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4536</t>
+          <t>4536</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
@@ -1196,7 +1255,6 @@
           <t>15</t>
         </is>
       </c>
-      <c r="B16" t="inlineStr"/>
       <c r="C16" t="inlineStr">
         <is>
           <t>31/05/2022</t>
@@ -1204,7 +1262,7 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4577</t>
+          <t>4577</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
@@ -1244,7 +1302,6 @@
           <t>16</t>
         </is>
       </c>
-      <c r="B17" t="inlineStr"/>
       <c r="C17" t="inlineStr">
         <is>
           <t>02/06/2022</t>
@@ -1252,7 +1309,7 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4580</t>
+          <t>4580</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
@@ -1292,7 +1349,6 @@
           <t>17</t>
         </is>
       </c>
-      <c r="B18" t="inlineStr"/>
       <c r="C18" t="inlineStr">
         <is>
           <t>04/06/2022</t>
@@ -1300,7 +1356,7 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4583</t>
+          <t>4583</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
@@ -1352,7 +1408,7 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4586</t>
+          <t>4586</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
@@ -1404,7 +1460,7 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4590</t>
+          <t>4590</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
@@ -1456,7 +1512,7 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4592</t>
+          <t>4592</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
@@ -1496,7 +1552,6 @@
           <t>21</t>
         </is>
       </c>
-      <c r="B22" t="inlineStr"/>
       <c r="C22" t="inlineStr">
         <is>
           <t>24/07/2022</t>
@@ -1504,7 +1559,7 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4623</t>
+          <t>4623</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
@@ -1556,7 +1611,7 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4624</t>
+          <t>4624</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
@@ -1595,7 +1650,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1617,7 +1672,7 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>MATCH_CARD_LINK</t>
+          <t>MATCH_CODE</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
@@ -1654,7 +1709,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4282</t>
+          <t>4282</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -1691,7 +1746,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4377</t>
+          <t>4377</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -1728,7 +1783,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4378</t>
+          <t>4378</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -1765,7 +1820,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4379</t>
+          <t>4379</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -1802,7 +1857,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4385</t>
+          <t>4385</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -1839,7 +1894,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4391</t>
+          <t>4391</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -1876,7 +1931,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4394</t>
+          <t>4394</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -1913,7 +1968,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4397</t>
+          <t>4397</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -1950,7 +2005,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4413</t>
+          <t>4413</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -1987,7 +2042,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4417</t>
+          <t>4417</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -2024,7 +2079,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4483</t>
+          <t>4483</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -2061,7 +2116,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4484</t>
+          <t>4484</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -2098,7 +2153,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4486</t>
+          <t>4486</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -2135,7 +2190,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4536</t>
+          <t>4536</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -2172,7 +2227,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4577</t>
+          <t>4577</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -2209,7 +2264,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4580</t>
+          <t>4580</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -2246,7 +2301,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4583</t>
+          <t>4583</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -2283,7 +2338,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4586</t>
+          <t>4586</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -2320,7 +2375,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4590</t>
+          <t>4590</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -2357,7 +2412,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4592</t>
+          <t>4592</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -2394,7 +2449,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4623</t>
+          <t>4623</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -2431,7 +2486,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4624</t>
+          <t>4624</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -2459,6 +2514,491 @@
           <t>2/57</t>
         </is>
       </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:F21"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>MATCH_CODE</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>BATTING_POSITION</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>NUM_4</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>NUM_6</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>PERCENT_RUNS_OF_TOTAL</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>MAN_OF_MATCH</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>4378</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>10</v>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>1.62%</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>4379</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr"/>
+      <c r="C3" t="inlineStr"/>
+      <c r="D3" t="inlineStr"/>
+      <c r="E3" t="inlineStr"/>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>4385</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>9</v>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>19.01%</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>4391</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>9</v>
+      </c>
+      <c r="C5" t="inlineStr"/>
+      <c r="D5" t="inlineStr"/>
+      <c r="E5" t="inlineStr"/>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>4394</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>9</v>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>6.92%</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>4397</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>8</v>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>0.66%</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>4413</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>9</v>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>16.26%</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>4417</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>9</v>
+      </c>
+      <c r="C9" t="inlineStr"/>
+      <c r="D9" t="inlineStr"/>
+      <c r="E9" t="inlineStr"/>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>4483</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr"/>
+      <c r="C10" t="inlineStr"/>
+      <c r="D10" t="inlineStr"/>
+      <c r="E10" t="inlineStr"/>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>4484</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>10</v>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>7.69%</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>4486</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>10</v>
+      </c>
+      <c r="C12" t="inlineStr"/>
+      <c r="D12" t="inlineStr"/>
+      <c r="E12" t="inlineStr"/>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>4536</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>10</v>
+      </c>
+      <c r="C13" t="inlineStr"/>
+      <c r="D13" t="inlineStr"/>
+      <c r="E13" t="inlineStr"/>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>4577</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>9</v>
+      </c>
+      <c r="C14" t="inlineStr"/>
+      <c r="D14" t="inlineStr"/>
+      <c r="E14" t="inlineStr"/>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>4580</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr"/>
+      <c r="C15" t="inlineStr"/>
+      <c r="D15" t="inlineStr"/>
+      <c r="E15" t="inlineStr"/>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>4583</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr"/>
+      <c r="C16" t="inlineStr"/>
+      <c r="D16" t="inlineStr"/>
+      <c r="E16" t="inlineStr"/>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>4586</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>10</v>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>1.39%</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>4590</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr"/>
+      <c r="C18" t="inlineStr"/>
+      <c r="D18" t="inlineStr"/>
+      <c r="E18" t="inlineStr"/>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>4592</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>10</v>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>7.30%</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>4623</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr"/>
+      <c r="C20" t="inlineStr"/>
+      <c r="D20" t="inlineStr"/>
+      <c r="E20" t="inlineStr"/>
+      <c r="F20" t="inlineStr"/>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>4624</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr"/>
+      <c r="C21" t="inlineStr"/>
+      <c r="D21" t="inlineStr"/>
+      <c r="E21" t="inlineStr"/>
+      <c r="F21" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/bin/sheets/main_db/teams/WIN/PlayerPerformance_4956.xlsx
+++ b/bin/sheets/main_db/teams/WIN/PlayerPerformance_4956.xlsx
@@ -11,6 +11,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Batting" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Bowling" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Batting Extra" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Bowling Extra" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -2602,10 +2603,6 @@
           <t>4379</t>
         </is>
       </c>
-      <c r="B3" t="inlineStr"/>
-      <c r="C3" t="inlineStr"/>
-      <c r="D3" t="inlineStr"/>
-      <c r="E3" t="inlineStr"/>
       <c r="F3" t="inlineStr">
         <is>
           <t>NO</t>
@@ -2651,9 +2648,6 @@
       <c r="B5" t="n">
         <v>9</v>
       </c>
-      <c r="C5" t="inlineStr"/>
-      <c r="D5" t="inlineStr"/>
-      <c r="E5" t="inlineStr"/>
       <c r="F5" t="inlineStr">
         <is>
           <t>NO</t>
@@ -2759,9 +2753,6 @@
       <c r="B9" t="n">
         <v>9</v>
       </c>
-      <c r="C9" t="inlineStr"/>
-      <c r="D9" t="inlineStr"/>
-      <c r="E9" t="inlineStr"/>
       <c r="F9" t="inlineStr">
         <is>
           <t>NO</t>
@@ -2774,10 +2765,6 @@
           <t>4483</t>
         </is>
       </c>
-      <c r="B10" t="inlineStr"/>
-      <c r="C10" t="inlineStr"/>
-      <c r="D10" t="inlineStr"/>
-      <c r="E10" t="inlineStr"/>
       <c r="F10" t="inlineStr">
         <is>
           <t>NO</t>
@@ -2823,9 +2810,6 @@
       <c r="B12" t="n">
         <v>10</v>
       </c>
-      <c r="C12" t="inlineStr"/>
-      <c r="D12" t="inlineStr"/>
-      <c r="E12" t="inlineStr"/>
       <c r="F12" t="inlineStr">
         <is>
           <t>NO</t>
@@ -2841,9 +2825,6 @@
       <c r="B13" t="n">
         <v>10</v>
       </c>
-      <c r="C13" t="inlineStr"/>
-      <c r="D13" t="inlineStr"/>
-      <c r="E13" t="inlineStr"/>
       <c r="F13" t="inlineStr">
         <is>
           <t>NO</t>
@@ -2859,9 +2840,6 @@
       <c r="B14" t="n">
         <v>9</v>
       </c>
-      <c r="C14" t="inlineStr"/>
-      <c r="D14" t="inlineStr"/>
-      <c r="E14" t="inlineStr"/>
       <c r="F14" t="inlineStr">
         <is>
           <t>NO</t>
@@ -2874,10 +2852,6 @@
           <t>4580</t>
         </is>
       </c>
-      <c r="B15" t="inlineStr"/>
-      <c r="C15" t="inlineStr"/>
-      <c r="D15" t="inlineStr"/>
-      <c r="E15" t="inlineStr"/>
       <c r="F15" t="inlineStr">
         <is>
           <t>NO</t>
@@ -2890,10 +2864,6 @@
           <t>4583</t>
         </is>
       </c>
-      <c r="B16" t="inlineStr"/>
-      <c r="C16" t="inlineStr"/>
-      <c r="D16" t="inlineStr"/>
-      <c r="E16" t="inlineStr"/>
       <c r="F16" t="inlineStr">
         <is>
           <t>NO</t>
@@ -2936,15 +2906,336 @@
           <t>4590</t>
         </is>
       </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>4592</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>10</v>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>7.30%</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>4623</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>4624</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C21"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>MATCH_CODE</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>MAIDEN_OVERS</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>PERCENT_WICKETS_OF_ALL</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>4378</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>30.00%</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>4379</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr"/>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>4385</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr"/>
+      <c r="C4" t="inlineStr"/>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>4391</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>20.00%</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>4394</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr"/>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>4397</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>40.00%</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>4413</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>20.00%</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>4417</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr"/>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>4483</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>50.00%</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>4484</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>10.00%</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>4486</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr"/>
+      <c r="C12" t="inlineStr"/>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>4536</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>20.00%</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>4577</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>10.00%</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>4580</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>10.00%</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>4583</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>20.00%</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>4586</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr"/>
+      <c r="C17" t="inlineStr"/>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>4590</t>
+        </is>
+      </c>
       <c r="B18" t="inlineStr"/>
       <c r="C18" t="inlineStr"/>
-      <c r="D18" t="inlineStr"/>
-      <c r="E18" t="inlineStr"/>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -2952,27 +3243,14 @@
           <t>4592</t>
         </is>
       </c>
-      <c r="B19" t="n">
-        <v>10</v>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>7.30%</t>
-        </is>
-      </c>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>NO</t>
+          <t>10.00%</t>
         </is>
       </c>
     </row>
@@ -2984,9 +3262,6 @@
       </c>
       <c r="B20" t="inlineStr"/>
       <c r="C20" t="inlineStr"/>
-      <c r="D20" t="inlineStr"/>
-      <c r="E20" t="inlineStr"/>
-      <c r="F20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -2994,11 +3269,16 @@
           <t>4624</t>
         </is>
       </c>
-      <c r="B21" t="inlineStr"/>
-      <c r="C21" t="inlineStr"/>
-      <c r="D21" t="inlineStr"/>
-      <c r="E21" t="inlineStr"/>
-      <c r="F21" t="inlineStr"/>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>20.00%</t>
+        </is>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/bin/sheets/main_db/teams/WIN/PlayerPerformance_4956.xlsx
+++ b/bin/sheets/main_db/teams/WIN/PlayerPerformance_4956.xlsx
@@ -1,17 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Player Info" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Batting" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Bowling" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Batting Extra" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Bowling Extra" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="Player Info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="ODI Batting" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="ODI Bowling" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -610,6 +608,7 @@
           <t>2</t>
         </is>
       </c>
+      <c r="B3" t="inlineStr"/>
       <c r="C3" t="inlineStr">
         <is>
           <t>06/11/2019</t>
@@ -709,6 +708,7 @@
           <t>4</t>
         </is>
       </c>
+      <c r="B5" t="inlineStr"/>
       <c r="C5" t="inlineStr">
         <is>
           <t>11/11/2019</t>
@@ -756,6 +756,7 @@
           <t>5</t>
         </is>
       </c>
+      <c r="B6" t="inlineStr"/>
       <c r="C6" t="inlineStr">
         <is>
           <t>15/12/2019</t>
@@ -803,6 +804,7 @@
           <t>6</t>
         </is>
       </c>
+      <c r="B7" t="inlineStr"/>
       <c r="C7" t="inlineStr">
         <is>
           <t>07/01/2020</t>
@@ -902,6 +904,7 @@
           <t>8</t>
         </is>
       </c>
+      <c r="B9" t="inlineStr"/>
       <c r="C9" t="inlineStr">
         <is>
           <t>12/01/2020</t>
@@ -1105,6 +1108,7 @@
           <t>12</t>
         </is>
       </c>
+      <c r="B13" t="inlineStr"/>
       <c r="C13" t="inlineStr">
         <is>
           <t>24/07/2021</t>
@@ -1256,6 +1260,7 @@
           <t>15</t>
         </is>
       </c>
+      <c r="B16" t="inlineStr"/>
       <c r="C16" t="inlineStr">
         <is>
           <t>31/05/2022</t>
@@ -1303,6 +1308,7 @@
           <t>16</t>
         </is>
       </c>
+      <c r="B17" t="inlineStr"/>
       <c r="C17" t="inlineStr">
         <is>
           <t>02/06/2022</t>
@@ -1350,6 +1356,7 @@
           <t>17</t>
         </is>
       </c>
+      <c r="B18" t="inlineStr"/>
       <c r="C18" t="inlineStr">
         <is>
           <t>04/06/2022</t>
@@ -1553,6 +1560,7 @@
           <t>21</t>
         </is>
       </c>
+      <c r="B22" t="inlineStr"/>
       <c r="C22" t="inlineStr">
         <is>
           <t>24/07/2022</t>
@@ -2519,768 +2527,4 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:F21"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>MATCH_CODE</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>BATTING_POSITION</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>NUM_4</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>NUM_6</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>PERCENT_RUNS_OF_TOTAL</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>MAN_OF_MATCH</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>4378</t>
-        </is>
-      </c>
-      <c r="B2" t="n">
-        <v>10</v>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>1.62%</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>4379</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>4385</t>
-        </is>
-      </c>
-      <c r="B4" t="n">
-        <v>9</v>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>19.01%</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>4391</t>
-        </is>
-      </c>
-      <c r="B5" t="n">
-        <v>9</v>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>4394</t>
-        </is>
-      </c>
-      <c r="B6" t="n">
-        <v>9</v>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>6.92%</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>4397</t>
-        </is>
-      </c>
-      <c r="B7" t="n">
-        <v>8</v>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>0.66%</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>4413</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
-        <v>9</v>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>16.26%</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>4417</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
-        <v>9</v>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>4483</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>4484</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>10</v>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>7.69%</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>4486</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>10</v>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>4536</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>10</v>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>4577</t>
-        </is>
-      </c>
-      <c r="B14" t="n">
-        <v>9</v>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>4580</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>4583</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>4586</t>
-        </is>
-      </c>
-      <c r="B17" t="n">
-        <v>10</v>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>1.39%</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>4590</t>
-        </is>
-      </c>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>4592</t>
-        </is>
-      </c>
-      <c r="B19" t="n">
-        <v>10</v>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>7.30%</t>
-        </is>
-      </c>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>4623</t>
-        </is>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>4624</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:C21"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>MATCH_CODE</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>MAIDEN_OVERS</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>PERCENT_WICKETS_OF_ALL</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>4378</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>30.00%</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>4379</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr"/>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>4385</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr"/>
-      <c r="C4" t="inlineStr"/>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>4391</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>20.00%</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>4394</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr"/>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>4397</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>40.00%</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>4413</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>20.00%</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>4417</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr"/>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>4483</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>50.00%</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>4484</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>10.00%</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>4486</t>
-        </is>
-      </c>
-      <c r="B12" t="inlineStr"/>
-      <c r="C12" t="inlineStr"/>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>4536</t>
-        </is>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>20.00%</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>4577</t>
-        </is>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>10.00%</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>4580</t>
-        </is>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>10.00%</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>4583</t>
-        </is>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>20.00%</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>4586</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr"/>
-      <c r="C17" t="inlineStr"/>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>4590</t>
-        </is>
-      </c>
-      <c r="B18" t="inlineStr"/>
-      <c r="C18" t="inlineStr"/>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>4592</t>
-        </is>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>10.00%</t>
-        </is>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>4623</t>
-        </is>
-      </c>
-      <c r="B20" t="inlineStr"/>
-      <c r="C20" t="inlineStr"/>
-    </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>4624</t>
-        </is>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>20.00%</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
 </file>